--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:19:27+00:00</t>
+    <t>2022-09-20T21:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:37:06+00:00</t>
+    <t>2022-10-08T01:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T01:52:10+00:00</t>
+    <t>2022-10-08T02:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:01:28+00:00</t>
+    <t>2022-10-08T02:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:22+00:00</t>
+    <t>2022-10-08T02:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:45+00:00</t>
+    <t>2022-10-08T02:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:04:28+00:00</t>
+    <t>2022-10-08T02:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:06:31+00:00</t>
+    <t>2022-10-08T02:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:08:40+00:00</t>
+    <t>2022-10-08T02:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:09:14+00:00</t>
+    <t>2022-10-08T02:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:10:18+00:00</t>
+    <t>2022-10-08T02:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:12:18+00:00</t>
+    <t>2022-10-08T02:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:13:28+00:00</t>
+    <t>2022-10-08T02:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:14:23+00:00</t>
+    <t>2022-11-29T17:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:06:49+00:00</t>
+    <t>2023-03-09T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T17:04:20+00:00</t>
+    <t>2023-03-15T20:21:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:21:30+00:00</t>
+    <t>2023-03-15T20:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:20+00:00</t>
+    <t>2023-03-15T20:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:19+00:00</t>
+    <t>2023-03-16T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T09:46:21+00:00</t>
+    <t>2023-03-16T13:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:05:08+00:00</t>
+    <t>2023-03-20T20:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T20:26:34+00:00</t>
+    <t>2023-05-01T15:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-request-intent-vs.xlsx
+++ b/ValueSet-medication-request-intent-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/medication-request-intent-vs</t>
+    <t>http://fhir.openmrs.org/core/ValueSet/medication-request-intent-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:55:39+00:00</t>
+    <t>2023-05-08T19:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,56 +343,58 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -411,90 +416,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
